--- a/data-raw/fluxes/lf_05-simyc/lf_05-simyc_d_2021-01-09.xlsx
+++ b/data-raw/fluxes/lf_05-simyc/lf_05-simyc_d_2021-01-09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05-simyc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C44A5-63BD-5C4B-8FD1-6DDD398F4824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366953C-CFD8-1A4C-8DCB-14E6EA295AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19840" yWindow="1740" windowWidth="17700" windowHeight="16940" xr2:uid="{101A82DF-E6B5-5B46-9986-3500AB660F6E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="11">
   <si>
     <t>time</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>run</t>
-  </si>
-  <si>
-    <t>treatment</t>
   </si>
   <si>
     <t>oxygen</t>
@@ -106,10 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -427,138 +423,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685FC2E-8A1C-C645-8D24-132AF64BA898}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2" s="4">
+        <v>59.113999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="C3">
+        <v>71.036000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>70.733000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>70.483999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>70.239000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="B7">
         <v>-24</v>
       </c>
-      <c r="D2" s="5">
-        <v>59.113999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C7">
+        <v>58.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>71.036000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C8">
+        <v>70.284000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="B9">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>70.733000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C9">
+        <v>69.828999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="B10">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>70.483999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C10">
+        <v>69.319000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="B11">
         <v>72</v>
       </c>
-      <c r="D6">
-        <v>70.239000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>-24</v>
-      </c>
-      <c r="D7">
-        <v>58.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>70.284000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>69.828999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>69.319000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C11">
-        <v>72</v>
-      </c>
-      <c r="D11">
         <v>68.864000000000004</v>
       </c>
     </row>
